--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2035_REDIFUEL/output/LCA_Resources_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2035_REDIFUEL/output/LCA_Resources_final.xlsx
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.760946160293433e-07</v>
+        <v>1.553151084815162e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003749999999999867</v>
+        <v>0.001010999999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002885427906156319</v>
+        <v>0.007779113634997697</v>
       </c>
       <c r="E2" t="n">
-        <v>1.013085673743262e-08</v>
+        <v>2.731278976411925e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.462231415292747e-07</v>
+        <v>3.942175895629378e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>1.339521477056221e-06</v>
+        <v>3.611349902143694e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.023956385071222e-13</v>
+        <v>2.760586414152107e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.751263980293842e-12</v>
+        <v>4.721407690872356e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>3.07427952575173e-05</v>
+        <v>8.288257601426943e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005332841637768394</v>
+        <v>0.001437734105542407</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3011426303987e-09</v>
+        <v>6.203880531555103e-09</v>
       </c>
       <c r="M2" t="n">
-        <v>3.807855925275109e-12</v>
+        <v>1.026597957454204e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>7.522796867028822e-07</v>
+        <v>2.028146035351039e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003632620754296809</v>
+        <v>0.0009793545553584526</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00683430069926912</v>
+        <v>0.01842527468523017</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.154354609826967e-11</v>
+        <v>1.389614002809397e-10</v>
       </c>
     </row>
     <row r="3">
@@ -637,52 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.68994110671576</v>
+        <v>31.68992717441736</v>
       </c>
       <c r="C4" t="n">
-        <v>773.352657</v>
+        <v>773.352317</v>
       </c>
       <c r="D4" t="n">
-        <v>28014.20643076839</v>
+        <v>28014.19411448538</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1169215654230574</v>
+        <v>0.1169215140191708</v>
       </c>
       <c r="F4" t="n">
-        <v>3.505139155884144</v>
+        <v>3.50513761487009</v>
       </c>
       <c r="G4" t="n">
-        <v>117.489990982023</v>
+        <v>117.4899393282314</v>
       </c>
       <c r="H4" t="n">
-        <v>1.07672136112065e-06</v>
+        <v>1.076720887746363e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>1.928516874130732e-05</v>
+        <v>1.928516026269498e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>190.5198673156499</v>
+        <v>190.5197835546977</v>
       </c>
       <c r="K4" t="n">
-        <v>44004.17280943437</v>
+        <v>44004.15346325559</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02652654832753748</v>
+        <v>0.0265265366652947</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001656452322972035</v>
+        <v>0.0001656451594722401</v>
       </c>
       <c r="N4" t="n">
-        <v>8.400697181484484</v>
+        <v>8.400693488166802</v>
       </c>
       <c r="O4" t="n">
-        <v>6224.461147060824</v>
+        <v>6224.458410512663</v>
       </c>
       <c r="P4" t="n">
-        <v>7950.521297053698</v>
+        <v>7950.517801653225</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.77158329958405e-05</v>
+        <v>8.771579443208443e-05</v>
       </c>
     </row>
     <row r="5">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.255209406271176e-06</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.099999999999224e-05</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006921025016689208</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.298151322443628e-08</v>
+        <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.072423251937275e-06</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.147335893460366e-06</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>7.293660563172019e-14</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.550126426538502e-12</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.541163878805289e-06</v>
+        <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01326521949549599</v>
+        <v>-0</v>
       </c>
       <c r="L5" t="n">
-        <v>8.500172792220728e-10</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.654411118328523e-12</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.023725592092915e-07</v>
+        <v>-0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0006014520277689078</v>
+        <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0006551314236836089</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.730826415978503e-12</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.020007030343673e-07</v>
+        <v>2.010003515173236e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.999999999993037e-06</v>
+        <v>-5e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001592010122221998</v>
+        <v>0.0007960050611115533</v>
       </c>
       <c r="E7" t="n">
-        <v>4.708208471952675e-09</v>
+        <v>2.354104235977976e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>3.715242422441587e-07</v>
+        <v>1.857621211222087e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>1.612152104686415e-06</v>
+        <v>8.060760523437687e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>2.124859826307605e-14</v>
+        <v>1.062429913154542e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>1.282421111906331e-12</v>
+        <v>6.412105559536119e-13</v>
       </c>
       <c r="J7" t="n">
-        <v>1.722227660574739e-06</v>
+        <v>8.611138302879693e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004206420809011829</v>
+        <v>0.002103210404507379</v>
       </c>
       <c r="L7" t="n">
-        <v>2.853611691056801e-10</v>
+        <v>1.426805845529394e-10</v>
       </c>
       <c r="M7" t="n">
-        <v>3.378498320057335e-12</v>
+        <v>1.689249160029844e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>7.767612379468947e-08</v>
+        <v>3.883806189737178e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002102217407746652</v>
+        <v>0.0001051108703874058</v>
       </c>
       <c r="P7" t="n">
-        <v>0.000301177829100168</v>
+        <v>0.0001505889145501889</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.286608559911925e-12</v>
+        <v>1.643304279957107e-12</v>
       </c>
     </row>
     <row r="8">
@@ -1077,52 +1077,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.46121752413155</v>
+        <v>1.08153739496405</v>
       </c>
       <c r="C12" t="n">
-        <v>1087.313481</v>
+        <v>102.604299</v>
       </c>
       <c r="D12" t="n">
-        <v>201601.1353550846</v>
+        <v>19024.08415987677</v>
       </c>
       <c r="E12" t="n">
-        <v>5.501485774247139</v>
+        <v>0.5191475146670236</v>
       </c>
       <c r="F12" t="n">
-        <v>4.558165762452216</v>
+        <v>0.4301311544045963</v>
       </c>
       <c r="G12" t="n">
-        <v>40.45643819275971</v>
+        <v>3.817670389764014</v>
       </c>
       <c r="H12" t="n">
-        <v>1.430373649738026e-06</v>
+        <v>1.349771599488167e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>7.474727646737778e-05</v>
+        <v>7.053524156659005e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>53.165335292302</v>
+        <v>5.016945024676473</v>
       </c>
       <c r="K12" t="n">
-        <v>21346.50595374553</v>
+        <v>2014.36229547069</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004181141115169951</v>
+        <v>0.0003945532366135457</v>
       </c>
       <c r="M12" t="n">
-        <v>6.907334133307641e-05</v>
+        <v>6.518103464099356e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>9.541830377631364</v>
+        <v>0.900414493319219</v>
       </c>
       <c r="O12" t="n">
-        <v>309.7353763390462</v>
+        <v>29.22816806753914</v>
       </c>
       <c r="P12" t="n">
-        <v>114834.6620467577</v>
+        <v>10836.36890933524</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.891181142555856e-05</v>
+        <v>8.390160007718717e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1132,52 +1132,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.014158448213029</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>521.323743</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32348.1459561813</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01715554044175579</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9182273163546449</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.488091178761243</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.511386095535072e-07</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.24638165682613e-06</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>271.3824324447996</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>9082.400920614689</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001149870803672264</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.782236983776023e-05</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.893351656311822</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9210014615135</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>58948.8627659515</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001000428584825079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.07117408772754</v>
+        <v>14.25830141698177</v>
       </c>
       <c r="C16" t="n">
-        <v>5674.661582999999</v>
+        <v>7308.261495</v>
       </c>
       <c r="D16" t="n">
-        <v>93135.38907644665</v>
+        <v>119946.8493149151</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1644799242420485</v>
+        <v>0.2118297768874511</v>
       </c>
       <c r="F16" t="n">
-        <v>4.18345041511488</v>
+        <v>5.387766149195199</v>
       </c>
       <c r="G16" t="n">
-        <v>43.90874053057655</v>
+        <v>56.54902112134614</v>
       </c>
       <c r="H16" t="n">
-        <v>2.596210504440509e-06</v>
+        <v>3.343597672741977e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>3.004512290853639e-05</v>
+        <v>3.869439818628193e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2621.105272658801</v>
+        <v>3375.659051792621</v>
       </c>
       <c r="K16" t="n">
-        <v>9352.273947043668</v>
+        <v>12044.57086615149</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008448250175730129</v>
+        <v>0.01088030018290088</v>
       </c>
       <c r="M16" t="n">
-        <v>9.812287363884914e-05</v>
+        <v>0.0001263701118921071</v>
       </c>
       <c r="N16" t="n">
-        <v>33.46451786170307</v>
+        <v>43.09815550412608</v>
       </c>
       <c r="O16" t="n">
-        <v>593.5187384331911</v>
+        <v>764.3786469393532</v>
       </c>
       <c r="P16" t="n">
-        <v>421953.5855152338</v>
+        <v>543423.9727944977</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.005236091663673566</v>
+        <v>0.006743437741653962</v>
       </c>
     </row>
     <row r="17">
@@ -1352,52 +1352,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.690216301528909e-07</v>
+        <v>6.338130137196e-08</v>
       </c>
       <c r="C17" t="n">
-        <v>3.699999999999843e-05</v>
+        <v>4.999999999995662e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001817987855275479</v>
+        <v>0.0002456740344964837</v>
       </c>
       <c r="E17" t="n">
-        <v>1.300091895734972e-09</v>
+        <v>1.756880940180945e-10</v>
       </c>
       <c r="F17" t="n">
-        <v>5.461480392079354e-08</v>
+        <v>7.380378908209254e-09</v>
       </c>
       <c r="G17" t="n">
-        <v>5.683552947760148e-07</v>
+        <v>7.680476956426296e-08</v>
       </c>
       <c r="H17" t="n">
-        <v>1.786327960205918e-14</v>
+        <v>2.413956702978979e-15</v>
       </c>
       <c r="I17" t="n">
-        <v>4.525977845199606e-13</v>
+        <v>6.116186277291719e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>1.44218510943876e-05</v>
+        <v>1.948898796537257e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0004871678157235135</v>
+        <v>6.58334886112313e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>7.377448438609527e-11</v>
+        <v>9.969524917031676e-12</v>
       </c>
       <c r="M17" t="n">
-        <v>3.050425826397417e-12</v>
+        <v>4.122197062695811e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>2.313085405692068e-07</v>
+        <v>3.125791088770485e-08</v>
       </c>
       <c r="O17" t="n">
-        <v>7.224951406034403e-06</v>
+        <v>9.763447845984382e-07</v>
       </c>
       <c r="P17" t="n">
-        <v>0.003136665724864033</v>
+        <v>0.000423873746602898</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.306488688982964e-11</v>
+        <v>7.170930660781872e-12</v>
       </c>
     </row>
     <row r="18">
@@ -1462,52 +1462,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6.514145974243178e-09</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>-1e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4.822344231256912e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.966444282314613e-10</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.045780441475926e-09</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.120591380753853e-08</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.646718735870561e-15</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.270710232847678e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.542761756311504e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.722028599714332e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.209329373922937e-11</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.68979520305985e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.161717446410351e-09</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.186539390861984e-06</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>4.932924396572918e-06</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>6.229996233174459e-14</v>
       </c>
     </row>
     <row r="20">
@@ -1517,52 +1517,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.427854433461498e-09</v>
+        <v>7.139272167307491e-10</v>
       </c>
       <c r="C20" t="n">
-        <v>1.999999999999999e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>1.393105475856259e-05</v>
+        <v>6.965527379281298e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>3.819642971004419e-11</v>
+        <v>1.90982148550221e-11</v>
       </c>
       <c r="F20" t="n">
-        <v>3.499919091789101e-10</v>
+        <v>1.749959545894551e-10</v>
       </c>
       <c r="G20" t="n">
-        <v>3.672236617372025e-09</v>
+        <v>1.836118308686013e-09</v>
       </c>
       <c r="H20" t="n">
-        <v>4.095172158336964e-16</v>
+        <v>2.047586079168482e-16</v>
       </c>
       <c r="I20" t="n">
-        <v>7.390819371200244e-15</v>
+        <v>3.695409685600122e-15</v>
       </c>
       <c r="J20" t="n">
-        <v>2.12207331796593e-07</v>
+        <v>1.061036658982965e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>2.357815717604407e-06</v>
+        <v>1.178907858802204e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>8.234456790145351e-12</v>
+        <v>4.117228395072676e-12</v>
       </c>
       <c r="M20" t="n">
-        <v>1.198524742496891e-14</v>
+        <v>5.992623712484458e-15</v>
       </c>
       <c r="N20" t="n">
-        <v>2.889372231095568e-09</v>
+        <v>1.444686115547784e-09</v>
       </c>
       <c r="O20" t="n">
-        <v>1.699280349759058e-07</v>
+        <v>8.49640174879529e-08</v>
       </c>
       <c r="P20" t="n">
-        <v>3.251038323067466e-05</v>
+        <v>1.625519161533734e-05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.874943078862526e-13</v>
+        <v>9.374715394312632e-14</v>
       </c>
     </row>
     <row r="21">
@@ -1627,52 +1627,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.778950680536496</v>
+        <v>4.097742716882044e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>421.446777</v>
+        <v>0.0004569999999999953</v>
       </c>
       <c r="D22" t="n">
-        <v>26304.8544969101</v>
+        <v>0.02852393033032447</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1526609196357256</v>
+        <v>1.65539384996948e-07</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4973728887025025</v>
+        <v>5.393312336021052e-07</v>
       </c>
       <c r="G22" t="n">
-        <v>5.263603587216071</v>
+        <v>5.70764084727529e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>1.157554834733578e-06</v>
+        <v>1.255206086137039e-12</v>
       </c>
       <c r="I22" t="n">
-        <v>2.543827106002997e-05</v>
+        <v>2.758424197044834e-11</v>
       </c>
       <c r="J22" t="n">
-        <v>113.4049652947314</v>
+        <v>0.0001229718008727155</v>
       </c>
       <c r="K22" t="n">
-        <v>27901.19128235699</v>
+        <v>0.03025493398431426</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04174115023628322</v>
+        <v>4.526243098539875e-08</v>
       </c>
       <c r="M22" t="n">
-        <v>2.558931702576326e-05</v>
+        <v>2.774803016413551e-11</v>
       </c>
       <c r="N22" t="n">
-        <v>1.552096785146125</v>
+        <v>1.6830315701092e-06</v>
       </c>
       <c r="O22" t="n">
-        <v>3915.213635588285</v>
+        <v>0.004245500806057483</v>
       </c>
       <c r="P22" t="n">
-        <v>3144.417192022719</v>
+        <v>0.003409680024090842</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.692345313524081e-05</v>
+        <v>4.003831326678974e-11</v>
       </c>
     </row>
     <row r="23">
@@ -1682,52 +1682,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.08178648067422e-06</v>
+        <v>1.813617707653391e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002259999999999994</v>
+        <v>0.0001329999999999981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01400187549391421</v>
+        <v>0.00824004177296711</v>
       </c>
       <c r="E23" t="n">
-        <v>7.70868494542147e-09</v>
+        <v>4.536526981155058e-09</v>
       </c>
       <c r="F23" t="n">
-        <v>4.095469505188503e-07</v>
+        <v>2.410165682256922e-07</v>
       </c>
       <c r="G23" t="n">
-        <v>4.244441126902865e-06</v>
+        <v>2.497834822469355e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>1.099833214965184e-13</v>
+        <v>6.472469804883525e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>3.208387890443629e-12</v>
+        <v>1.888122077119458e-12</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001168661960714865</v>
+        <v>6.877523928100673e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003828242755534414</v>
+        <v>0.002252903922504739</v>
       </c>
       <c r="L23" t="n">
-        <v>6.145703531355731e-10</v>
+        <v>3.616719334824346e-10</v>
       </c>
       <c r="M23" t="n">
-        <v>1.705322031253105e-11</v>
+        <v>1.003574469719735e-11</v>
       </c>
       <c r="N23" t="n">
-        <v>1.720378414654528e-06</v>
+        <v>1.012435084730307e-06</v>
       </c>
       <c r="O23" t="n">
-        <v>5.379273940781763e-05</v>
+        <v>3.165678912052946e-05</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02537685423818339</v>
+        <v>0.01493416643220509</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.307431172120003e-10</v>
+        <v>2.534904185362626e-10</v>
       </c>
     </row>
     <row r="24">
@@ -1792,52 +1792,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.7994563977847</v>
+        <v>16.92350376158856</v>
       </c>
       <c r="C25" t="n">
-        <v>4684.833513999999</v>
+        <v>4217.345221</v>
       </c>
       <c r="D25" t="n">
-        <v>133103.7381264076</v>
+        <v>119821.6355409723</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3439261262516504</v>
+        <v>0.3096065635182016</v>
       </c>
       <c r="F25" t="n">
-        <v>4.050714442536622</v>
+        <v>3.646503369824446</v>
       </c>
       <c r="G25" t="n">
-        <v>41.30862648089537</v>
+        <v>37.18653778296851</v>
       </c>
       <c r="H25" t="n">
-        <v>2.042243508127808e-06</v>
+        <v>1.83845292973224e-06</v>
       </c>
       <c r="I25" t="n">
-        <v>5.048331544555067e-05</v>
+        <v>4.544570655462755e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>859.9027747533252</v>
+        <v>774.0951405835967</v>
       </c>
       <c r="K25" t="n">
-        <v>20146.5150120761</v>
+        <v>18136.14262963196</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03507296611927344</v>
+        <v>0.03157311900356526</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001342929032420656</v>
+        <v>0.0001208921367236745</v>
       </c>
       <c r="N25" t="n">
-        <v>25.54425765804927</v>
+        <v>22.99525749127117</v>
       </c>
       <c r="O25" t="n">
-        <v>1952.125933719904</v>
+        <v>1757.327971796908</v>
       </c>
       <c r="P25" t="n">
-        <v>300233.0224809444</v>
+        <v>270273.4897115484</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.001927655188839446</v>
+        <v>0.001735299103819527</v>
       </c>
     </row>
     <row r="26">
@@ -1902,52 +1902,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.104425514325083e-07</v>
+        <v>1.122360274307074e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.499999999999514e-05</v>
+        <v>-8e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001646036151296737</v>
+        <v>0.0008778859473585442</v>
       </c>
       <c r="E27" t="n">
-        <v>5.967504604515386e-09</v>
+        <v>3.182669122409237e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>6.98319868468456e-08</v>
+        <v>3.724372631832972e-08</v>
       </c>
       <c r="G27" t="n">
-        <v>4.352762673613028e-07</v>
+        <v>2.3214734259277e-07</v>
       </c>
       <c r="H27" t="n">
-        <v>3.857130296143734e-14</v>
+        <v>2.057136157943991e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>8.267898393754807e-13</v>
+        <v>4.409545810003992e-13</v>
       </c>
       <c r="J27" t="n">
-        <v>2.698591842716589e-06</v>
+        <v>1.439248982782647e-06</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0005435708903881799</v>
+        <v>0.0002899044748737898</v>
       </c>
       <c r="L27" t="n">
-        <v>9.825063196625162e-10</v>
+        <v>5.240033704868451e-10</v>
       </c>
       <c r="M27" t="n">
-        <v>1.272104975071733e-12</v>
+        <v>6.784559867051438e-13</v>
       </c>
       <c r="N27" t="n">
-        <v>1.172479254496648e-07</v>
+        <v>6.253222690650814e-08</v>
       </c>
       <c r="O27" t="n">
-        <v>7.571278191838538e-05</v>
+        <v>4.038015035648528e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0002298214619263193</v>
+        <v>0.0001225714463607433</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.435233800320563e-12</v>
+        <v>1.298791360171388e-12</v>
       </c>
     </row>
     <row r="28">
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.738669349900134</v>
+        <v>9.738669420843442</v>
       </c>
       <c r="C34" t="n">
-        <v>-16198.328107</v>
+        <v>-16198.328225</v>
       </c>
       <c r="D34" t="n">
-        <v>32714.61548208261</v>
+        <v>32714.61572039885</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1354234739011907</v>
+        <v>0.1354234748877104</v>
       </c>
       <c r="F34" t="n">
-        <v>9.828499911803776</v>
+        <v>9.828499983401473</v>
       </c>
       <c r="G34" t="n">
-        <v>41.47062181027584</v>
+        <v>41.47062211237698</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.477949897910104e-07</v>
+        <v>-1.47794990867653e-07</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.87799420019447e-05</v>
+        <v>-4.877994235729205e-05</v>
       </c>
       <c r="J34" t="n">
-        <v>32.80104497236449</v>
+        <v>32.80104521131034</v>
       </c>
       <c r="K34" t="n">
-        <v>90289.07873900313</v>
+        <v>90289.07939673221</v>
       </c>
       <c r="L34" t="n">
-        <v>0.008231833057316413</v>
+        <v>0.008231833117282867</v>
       </c>
       <c r="M34" t="n">
-        <v>8.804502372473358e-05</v>
+        <v>8.804502436611538e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>2.814452838978353</v>
+        <v>2.814452859480805</v>
       </c>
       <c r="O34" t="n">
-        <v>1603.990599509619</v>
+        <v>1603.990611194213</v>
       </c>
       <c r="P34" t="n">
-        <v>5186.944332070488</v>
+        <v>5186.944369855834</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.750600356096113e-05</v>
+        <v>5.750600397987526e-05</v>
       </c>
     </row>
     <row r="35">
@@ -2342,52 +2342,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.865563753568911</v>
+        <v>3.865563779866047</v>
       </c>
       <c r="C35" t="n">
-        <v>-7496.776376000001</v>
+        <v>-7496.776427000001</v>
       </c>
       <c r="D35" t="n">
-        <v>46707.24458875678</v>
+        <v>46707.24490650262</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0859193803821601</v>
+        <v>0.08591938096666311</v>
       </c>
       <c r="F35" t="n">
-        <v>4.887984696375714</v>
+        <v>4.887984729628302</v>
       </c>
       <c r="G35" t="n">
-        <v>15.53472377711826</v>
+        <v>15.5347238827998</v>
       </c>
       <c r="H35" t="n">
-        <v>4.38250964958181e-07</v>
+        <v>4.382509679395691e-07</v>
       </c>
       <c r="I35" t="n">
-        <v>1.922019114581688e-05</v>
+        <v>1.922019127657038e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>15.7932209885276</v>
+        <v>15.79322109596768</v>
       </c>
       <c r="K35" t="n">
-        <v>95253.83621194944</v>
+        <v>95253.83685995406</v>
       </c>
       <c r="L35" t="n">
-        <v>0.004707031373903702</v>
+        <v>0.004707031405925278</v>
       </c>
       <c r="M35" t="n">
-        <v>3.517297128779395e-05</v>
+        <v>3.5172971527073e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>1.267828313770244</v>
+        <v>1.267828322395184</v>
       </c>
       <c r="O35" t="n">
-        <v>1307.360756148066</v>
+        <v>1307.360765041941</v>
       </c>
       <c r="P35" t="n">
-        <v>2683.327583066388</v>
+        <v>2683.327601320862</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.103069508752265e-05</v>
+        <v>3.103069529862211e-05</v>
       </c>
     </row>
     <row r="36">
@@ -2397,52 +2397,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.719144688353145e-08</v>
+        <v>4.544892556101951</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0002089999999999694</v>
+        <v>-16608.821703</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0007141638265319105</v>
+        <v>56753.2041224998</v>
       </c>
       <c r="E36" t="n">
-        <v>6.811100550395833e-09</v>
+        <v>0.5412648547499814</v>
       </c>
       <c r="F36" t="n">
-        <v>1.426985973058208e-07</v>
+        <v>11.33997875560249</v>
       </c>
       <c r="G36" t="n">
-        <v>2.211419984882705e-07</v>
+        <v>17.5737226025709</v>
       </c>
       <c r="H36" t="n">
-        <v>2.642648430562959e-14</v>
+        <v>2.100061081671741e-06</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.043098493661004e-13</v>
+        <v>-8.289299952098581e-06</v>
       </c>
       <c r="J36" t="n">
-        <v>3.637509341394794e-07</v>
+        <v>28.90657612164208</v>
       </c>
       <c r="K36" t="n">
-        <v>0.005831778988709437</v>
+        <v>463440.0834200519</v>
       </c>
       <c r="L36" t="n">
-        <v>1.155784602534527e-10</v>
+        <v>0.009184794445249514</v>
       </c>
       <c r="M36" t="n">
-        <v>6.2365339681009e-13</v>
+        <v>4.956051709134262e-05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.022365252592911e-08</v>
+        <v>3.19649508634775</v>
       </c>
       <c r="O36" t="n">
-        <v>3.190043993354867e-06</v>
+        <v>253.5065641644252</v>
       </c>
       <c r="P36" t="n">
-        <v>6.520161596778049e-05</v>
+        <v>5181.445044767954</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.858510719090507e-13</v>
+        <v>6.24500494662716e-05</v>
       </c>
     </row>
   </sheetData>
